--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB4ABBD-74CD-40DE-9802-DFBFF75E94DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACFB81-06B4-4057-8EB5-9DA3BADE9012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Nonthaburi</t>
   </si>
   <si>
-    <t>Nakhon Pathon</t>
-  </si>
-  <si>
     <t>Pathum Thani</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Age group</t>
+  </si>
+  <si>
+    <t>Nakhon Pathom</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A82A0-5AA5-4E6D-A2FE-CCF28BD867AB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>1.6348873200651111</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>2.2455457730331556</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>2.8524001988792151</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>4.0201724019828582</v>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>56549.211656136496</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>268974.89449608268</v>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>83409.393312986416</v>
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>11397.60590499834</v>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>13578.812972650458</v>
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>62298.219851944828</v>
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>17905.477992014268</v>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1665.4015833497633</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2332.4610417904928</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>9813.1168589732188</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2691.7765769944026</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>215.52719540418357</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>4283.6704830112385</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>17852.852381176417</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>3937.7890675909416</v>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>342.55800767620786</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>2639.0121400010607</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>10409.891573813673</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>2608.9193179028853</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>1062.9184101103506</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>8650.4863694146552</v>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>36057.730307864651</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>8612.8575557320946</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>1010.7115435825103</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2857.7088547372628</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1439.8984152133539</v>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1417.8104395239084</v>
@@ -1347,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>98.853920071143534</v>
@@ -1364,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>51.443245821277863</v>
@@ -1381,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>47.410674249865671</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>55.878258695558095</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>29.307305696688321</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>26.570952998869775</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>7.6740090606673768</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>4.0801887308042497</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>3.5938203298631275</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>177.22944832369353</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>92.578730581785081</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>84.650717741908466</v>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68266847-B4F8-4762-9EFA-4AAF93735BE2}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>0.35863075987136961</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>8.8430618352931284E-2</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>0.91336553454799807</v>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACFB81-06B4-4057-8EB5-9DA3BADE9012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BC09D-B0AB-4857-AE03-4CD580267EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -191,6 +197,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A82A0-5AA5-4E6D-A2FE-CCF28BD867AB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -578,8 +585,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3">
@@ -660,6 +667,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -673,7 +681,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="11.875" bestFit="1" customWidth="1"/>
@@ -886,8 +894,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
@@ -909,8 +917,8 @@
         <v>47.018134729823558</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -932,8 +940,8 @@
         <v>197.81442962087823</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
@@ -955,8 +963,8 @@
         <v>54.261276605311139</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -1264,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF75997-E874-43E2-AB24-8299D035A81B}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BC09D-B0AB-4857-AE03-4CD580267EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD0878-E59C-48A3-9328-907040DC589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A82A0-5AA5-4E6D-A2FE-CCF28BD867AB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF75997-E874-43E2-AB24-8299D035A81B}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD0878-E59C-48A3-9328-907040DC589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513B764-D3C9-4A22-8FD1-3C79D4881CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>Province</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Samut Prakan</t>
-  </si>
-  <si>
-    <t>Total_access</t>
   </si>
   <si>
     <t>Children</t>
@@ -515,7 +512,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -587,7 +584,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>1.6348873200651111</v>
@@ -692,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -715,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>56549.211656136496</v>
@@ -738,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>268974.89449608268</v>
@@ -761,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>83409.393312986416</v>
@@ -784,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>11397.60590499834</v>
@@ -807,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>13578.812972650458</v>
@@ -830,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>62298.219851944828</v>
@@ -853,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>17905.477992014268</v>
@@ -876,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1665.4015833497633</v>
@@ -896,10 +893,10 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2332.4610417904928</v>
@@ -919,10 +916,10 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>9813.1168589732188</v>
@@ -942,10 +939,10 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>2691.7765769944026</v>
@@ -965,10 +962,10 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>215.52719540418357</v>
@@ -991,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>4283.6704830112385</v>
@@ -1014,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>17852.852381176417</v>
@@ -1037,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>3937.7890675909416</v>
@@ -1060,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>342.55800767620786</v>
@@ -1083,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2639.0121400010607</v>
@@ -1106,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>10409.891573813673</v>
@@ -1129,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>2608.9193179028853</v>
@@ -1152,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>1062.9184101103506</v>
@@ -1175,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>8650.4863694146552</v>
@@ -1198,7 +1195,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>36057.730307864651</v>
@@ -1221,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>8612.8575557320946</v>
@@ -1244,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>1010.7115435825103</v>
@@ -1287,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1304,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2857.7088547372628</v>
@@ -1321,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1439.8984152133539</v>
@@ -1338,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1417.8104395239084</v>
@@ -1355,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>98.853920071143534</v>
@@ -1372,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>51.443245821277863</v>
@@ -1389,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>47.410674249865671</v>
@@ -1406,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>55.878258695558095</v>
@@ -1423,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>29.307305696688321</v>
@@ -1440,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>26.570952998869775</v>
@@ -1457,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>7.6740090606673768</v>
@@ -1474,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>4.0801887308042497</v>
@@ -1491,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>3.5938203298631275</v>
@@ -1508,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>177.22944832369353</v>
@@ -1525,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>92.578730581785081</v>
@@ -1542,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>84.650717741908466</v>
@@ -1574,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513B764-D3C9-4A22-8FD1-3C79D4881CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1827501-7B9F-49C8-9EAC-211FC6023B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>Province</t>
   </si>
@@ -86,22 +86,13 @@
     <t>All public transportation</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Age group</t>
   </si>
   <si>
     <t>Nakhon Pathom</t>
+  </si>
+  <si>
+    <t>'All public transportation</t>
   </si>
 </sst>
 </file>
@@ -511,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A82A0-5AA5-4E6D-A2FE-CCF28BD867AB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -584,7 +575,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>1.6348873200651111</v>
@@ -689,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -893,7 +884,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -916,7 +907,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -939,7 +930,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -962,7 +953,7 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1267,288 +1258,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF75997-E874-43E2-AB24-8299D035A81B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2">
+        <v>2857.7088547372628</v>
       </c>
       <c r="C2">
-        <v>2857.7088547372628</v>
+        <v>2677.6581737788347</v>
       </c>
       <c r="D2">
-        <v>2677.6581737788347</v>
-      </c>
-      <c r="E2">
         <v>823.16537104659812</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>98.853920071143534</v>
       </c>
       <c r="C3">
-        <v>1439.8984152133539</v>
+        <v>17.3403111577516</v>
       </c>
       <c r="D3">
-        <v>1349.1772454411587</v>
-      </c>
-      <c r="E3">
-        <v>414.76391524758151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81.51360891339263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>55.878258695558095</v>
       </c>
       <c r="C4">
-        <v>1417.8104395239084</v>
+        <v>51.491414107096745</v>
       </c>
       <c r="D4">
-        <v>1328.4809283376762</v>
-      </c>
-      <c r="E4">
-        <v>408.40145579901667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.3147054770257292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7.6740090606673768</v>
       </c>
       <c r="C5">
-        <v>98.853920071143534</v>
+        <v>7.6740090606673768</v>
       </c>
       <c r="D5">
-        <v>17.3403111577516</v>
-      </c>
-      <c r="E5">
-        <v>81.51360891339263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>177.22944832369353</v>
       </c>
       <c r="C6">
-        <v>51.443245821277863</v>
+        <v>172.00519301328336</v>
       </c>
       <c r="D6">
-        <v>9.0238393061567521</v>
-      </c>
-      <c r="E6">
-        <v>42.419406515121473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>47.410674249865671</v>
-      </c>
-      <c r="D7">
-        <v>8.3164718515948479</v>
-      </c>
-      <c r="E7">
-        <v>39.094202398271158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>55.878258695558095</v>
-      </c>
-      <c r="D8">
-        <v>51.491414107096745</v>
-      </c>
-      <c r="E8">
-        <v>6.3147054770257292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>29.307305696688321</v>
-      </c>
-      <c r="D9">
-        <v>27.006471733726627</v>
-      </c>
-      <c r="E9">
-        <v>3.3119679839711353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>26.570952998869775</v>
-      </c>
-      <c r="D10">
-        <v>24.484942373370114</v>
-      </c>
-      <c r="E10">
-        <v>3.0027374930545938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>7.6740090606673768</v>
-      </c>
-      <c r="D11">
-        <v>7.6740090606673768</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>4.0801887308042497</v>
-      </c>
-      <c r="D12">
-        <v>4.0801887308042497</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>3.5938203298631275</v>
-      </c>
-      <c r="D13">
-        <v>3.5938203298631275</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>177.22944832369353</v>
-      </c>
-      <c r="D14">
-        <v>172.00519301328336</v>
-      </c>
-      <c r="E14">
         <v>42.521304260732279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>92.578730581785081</v>
-      </c>
-      <c r="D15">
-        <v>89.849754503331283</v>
-      </c>
-      <c r="E15">
-        <v>22.21170583316751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>84.650717741908466</v>
-      </c>
-      <c r="D16">
-        <v>82.155438509952077</v>
-      </c>
-      <c r="E16">
-        <v>20.309598427564769</v>
       </c>
     </row>
   </sheetData>
@@ -1561,17 +1365,22 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1827501-7B9F-49C8-9EAC-211FC6023B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A52B58-5759-406C-99A3-2B9F6DCF0DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>Province</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Nakhon Pathom</t>
-  </si>
-  <si>
-    <t>'All public transportation</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1258,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1362,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A52B58-5759-406C-99A3-2B9F6DCF0DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECC2B11-BEDD-4531-A20F-E36A2A227FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F5F01-CC3F-4E92-955D-51DB05C3D878}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF75997-E874-43E2-AB24-8299D035A81B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECC2B11-BEDD-4531-A20F-E36A2A227FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C37B26A-4028-47B1-9719-C996DFDC0CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A82A0-5AA5-4E6D-A2FE-CCF28BD867AB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
@@ -591,7 +591,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
@@ -631,7 +631,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F5F01-CC3F-4E92-955D-51DB05C3D878}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data/Public_transport.xlsx
+++ b/Data/Public_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C37B26A-4028-47B1-9719-C996DFDC0CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368CF1EA-9E1A-447B-9FAE-985C7EA7050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{08C74A95-7339-4594-B24F-3191664E513D}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_normal" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A82A0-5AA5-4E6D-A2FE-CCF28BD867AB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1361,12 +1361,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68266847-B4F8-4762-9EFA-4AAF93735BE2}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
